--- a/spreadsheet/web_scrape_mug.xlsx
+++ b/spreadsheet/web_scrape_mug.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/williamlam/Desktop/FYP/ObjectPropertiesInformationExtraction/spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581BC0B3-EA36-104C-87D9-6A5B1259C033}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3861D9EC-C4B1-F84B-8B59-5AAC8DD63DB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="305">
   <si>
     <t xml:space="preserve">Hydro Flask 12oz Mug ONE BLACK
 Material Stainless Steel
@@ -2563,217 +2563,13 @@
     <t>Material</t>
   </si>
   <si>
-    <t>Size</t>
-  </si>
-  <si>
     <t>Colour</t>
   </si>
   <si>
-    <t>Stainless Steel;18/8 food-grade stainless steel;BPA Free Plastic</t>
-  </si>
-  <si>
-    <t>Black</t>
-  </si>
-  <si>
-    <t>8.89 x 11.94 x 11.43 cm</t>
-  </si>
-  <si>
-    <t>BLACK;Black</t>
-  </si>
-  <si>
     <t>11oz</t>
   </si>
   <si>
-    <t>Ceramic;high-quality ceramic</t>
-  </si>
-  <si>
-    <t>White</t>
-  </si>
-  <si>
-    <t>10 x 10 x 10 centimetres;10 x 10 x 10 cm</t>
-  </si>
-  <si>
-    <t>Glass;Borosilicate Glass</t>
-  </si>
-  <si>
-    <t>Pastel Blue</t>
-  </si>
-  <si>
-    <t>9 x 9 x 13 cm</t>
-  </si>
-  <si>
-    <t>Enamel;Glass;handmade enamel glass;high-quality Lead-Free eco-friendly sturdy glass</t>
-  </si>
-  <si>
-    <t>Red-tall</t>
-  </si>
-  <si>
-    <t>15 x 10 x 10 centimetres;15 x 10 x 10 cm</t>
-  </si>
-  <si>
-    <t>Stoneware;Enamelled stoneware</t>
-  </si>
-  <si>
-    <t>Satin Black</t>
-  </si>
-  <si>
-    <t>9.1 x 12.3 x 9.3 cm;9.1 x 12.3 x 9.35 cm</t>
-  </si>
-  <si>
-    <t>Porcelain</t>
-  </si>
-  <si>
-    <t>Kingfisher;bold;block blue</t>
-  </si>
-  <si>
-    <t>12.5 x 9 x 9 cm</t>
-  </si>
-  <si>
-    <t>Ceramic;High quality ceramic</t>
-  </si>
-  <si>
-    <t>9 x 9 x 9 centimetres;9 x 9 x 9 cm</t>
-  </si>
-  <si>
-    <t>Ceramic</t>
-  </si>
-  <si>
-    <t>9 x 9 x 9 cm</t>
-  </si>
-  <si>
-    <t>Ceramic;FDA-approved, AB-grade ceramic;</t>
-  </si>
-  <si>
-    <t>Red;red;white;black</t>
-  </si>
-  <si>
-    <t>10.3 x 6 x 12.3 centimetres;4.1" Wide x 4.8" Tall;10.3 x 6 x 12.3 cm;4.1*4.8 inches</t>
-  </si>
-  <si>
-    <t>Coastal Blue</t>
-  </si>
-  <si>
-    <t>15.2 x 11.4 x 9.4 cm</t>
-  </si>
-  <si>
-    <t>Multi-colour</t>
-  </si>
-  <si>
-    <t>11 x 11 x 10 cm</t>
-  </si>
-  <si>
-    <t>14.7 x 12.4 x 11.9 centimetres;14.73 x 12.45 x 11.94 cm</t>
-  </si>
-  <si>
-    <t>Plastic</t>
-  </si>
-  <si>
-    <t>Grey</t>
-  </si>
-  <si>
-    <t>12.1 x 8.9 x 11.4 cm</t>
-  </si>
-  <si>
-    <t>10 x 11 x 8.5 centimetres;10 x 11 x 8.5 cm</t>
-  </si>
-  <si>
-    <t>Friends</t>
-  </si>
-  <si>
-    <t>11 x 13 x 9 cm</t>
-  </si>
-  <si>
-    <t>Stainless Steel/Plastic</t>
-  </si>
-  <si>
-    <t>Translucent Lagoon</t>
-  </si>
-  <si>
-    <t>13 x 9 x 12 cm</t>
-  </si>
-  <si>
-    <t>Fine China</t>
-  </si>
-  <si>
-    <t>11.5 x 9 x 8 cm</t>
-  </si>
-  <si>
-    <t>Multi-Colour</t>
-  </si>
-  <si>
-    <t>Plastic;food grade BPA-free plastic</t>
-  </si>
-  <si>
-    <t>14.4 x 13 x 10.2 cm</t>
-  </si>
-  <si>
-    <t>8 x 11 x 10 cm</t>
-  </si>
-  <si>
-    <t>Pink Prime</t>
-  </si>
-  <si>
-    <t>15 x 11.6 x 9.6 cm</t>
-  </si>
-  <si>
-    <t>Stoneware</t>
-  </si>
-  <si>
-    <t>11.2 x 11 x 9.4 cm</t>
-  </si>
-  <si>
-    <t>Yellow</t>
-  </si>
-  <si>
-    <t>15.6 x 13.3 x 11.6 cm</t>
-  </si>
-  <si>
-    <t>White and Gold</t>
-  </si>
-  <si>
-    <t>12.8 x 9.8 x 9 cm</t>
-  </si>
-  <si>
-    <t>Plastic;BPA free food grade plastic;BPA free plastic</t>
-  </si>
-  <si>
-    <t>Blue</t>
-  </si>
-  <si>
-    <t>14.5 x 13.69 x 10.21 cm</t>
-  </si>
-  <si>
     <t>320g</t>
-  </si>
-  <si>
-    <t>Stainless Steel;18/8 stainless steel</t>
-  </si>
-  <si>
-    <t>26.6 x 8.9 x 8.4 cm</t>
-  </si>
-  <si>
-    <t>Ceramic;Chrome</t>
-  </si>
-  <si>
-    <t>15 x 12 x 10 centimetres;15 x 12 x 10 cm</t>
-  </si>
-  <si>
-    <t>Height: 90mm - Top diameter: 90mm - Including handle: 130mm - Base diameter: 70mm</t>
-  </si>
-  <si>
-    <t>Bone China;fine bone china</t>
-  </si>
-  <si>
-    <t>13.5 x 10 x 11 centimetres;13.5 x 10 x 11 cm</t>
-  </si>
-  <si>
-    <t>9.4 x 15.2 x 12.1 centimetres;9.4 x 15.2 x 12.1 cm</t>
-  </si>
-  <si>
-    <t>Matte Black;Black</t>
-  </si>
-  <si>
-    <t>10.8 x 10.8 x 10.6 centimetres;10.8 x 10.8 x 10.59 cm</t>
   </si>
   <si>
     <t>ceramic</t>
@@ -2797,16 +2593,7 @@
 Item Weight	640 g</t>
   </si>
   <si>
-    <t>Black;Purple;Lime;Orange;Turquoise;White;Yellow</t>
-  </si>
-  <si>
     <t>640g</t>
-  </si>
-  <si>
-    <t>Green</t>
-  </si>
-  <si>
-    <t>Glass;Borosilicate Glass;Stainless steel</t>
   </si>
   <si>
     <t>SULIVES Ceramic Tea Cup with Lid and Infuser,Porcelain Tea Mug Smooth and Easy Clean Inside, Navy Blue 400ml
@@ -2823,90 +2610,6 @@
 Package Dimensions	14 x 12.1 x 9.4 cm; 520 Grams
 Capacity	400 Millilitres
 Item Weight	520 g</t>
-  </si>
-  <si>
-    <t>Ceramic;Porcelain</t>
-  </si>
-  <si>
-    <t>Dark Blue</t>
-  </si>
-  <si>
-    <t>Ceramic;Porcelain;high-grade china</t>
-  </si>
-  <si>
-    <t>Pink</t>
-  </si>
-  <si>
-    <t>Latte</t>
-  </si>
-  <si>
-    <t>8 x 9 x 20.5 cm</t>
-  </si>
-  <si>
-    <t>Stainless Steel</t>
-  </si>
-  <si>
-    <t>15.39 x 13.59 x 9.4 cm</t>
-  </si>
-  <si>
-    <t>Black Blue</t>
-  </si>
-  <si>
-    <t>12.5 (w) x 15.5 (h) x 8.5 (d) cm;12.5 x 8.5 x 15.5 cm</t>
-  </si>
-  <si>
-    <t>9 x 9 x 15 cm</t>
-  </si>
-  <si>
-    <t>Plastic;stainless steel</t>
-  </si>
-  <si>
-    <t>Wood</t>
-  </si>
-  <si>
-    <t>8 * 7cm</t>
-  </si>
-  <si>
-    <t>Multicoloured</t>
-  </si>
-  <si>
-    <t>7.9 x 11 x 9.3 cm</t>
-  </si>
-  <si>
-    <t>10 x 12 x 8 cm</t>
-  </si>
-  <si>
-    <t>White;Gold;Black</t>
-  </si>
-  <si>
-    <t>9.7 x 12.5 x 10.2 cm</t>
-  </si>
-  <si>
-    <t>19.3 x 10.2 x 10.9 centimetres;19.3 x 10.16 x 10.92 cm</t>
-  </si>
-  <si>
-    <t>12 x 13 x 13 centimetres;12 x 13 x 13 cm</t>
-  </si>
-  <si>
-    <t>Orange</t>
-  </si>
-  <si>
-    <t>03 - Pink Glitter Name</t>
-  </si>
-  <si>
-    <t>Multi Colour</t>
-  </si>
-  <si>
-    <t>12.5 x 8.5 x 9.5 centimetres;12.5 x 8.5 x 9.5 cm</t>
-  </si>
-  <si>
-    <t>9.8 x 9.8 x 9.4 cm</t>
-  </si>
-  <si>
-    <t>11 (h) x 10 (w) x 13 (d) cm</t>
-  </si>
-  <si>
-    <t>15 x 9.6 x 9.6 cm</t>
   </si>
   <si>
     <t>Medieval Dragon Beer Mug, Stainless Steel Coffee Cup Gift Mug for Dragon Collector, Themed Party Decoration,Viking Tankard Drinkware Mug for Coffee/Beverage/Juice 17oz.
@@ -2924,15 +2627,6 @@
 Capacity	500 Millilitres
 Material	Stainless Steel
 Item Weight	640 g</t>
-  </si>
-  <si>
-    <t>Stainless Steel;304 stainless steel</t>
-  </si>
-  <si>
-    <t>Electrica</t>
-  </si>
-  <si>
-    <t>Stainless Steel;food-grade 304 grade stainless steel</t>
   </si>
   <si>
     <t>Bodum K11239-01 YO-YO Glass Mug with Tea Strainer (0.35 L/12 oz) - Black
@@ -2957,72 +2651,6 @@
 Item Weight	363 g</t>
   </si>
   <si>
-    <t>Glass</t>
-  </si>
-  <si>
-    <t>11.43 x 9.53 x 12.07 cm</t>
-  </si>
-  <si>
-    <t>7.5 x 7.5 x 8 centimetres;7.49 x 7.49 x 8 cm</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>Organic Natural Bamboo Fibre;bamboo</t>
-  </si>
-  <si>
-    <t>Floriditta</t>
-  </si>
-  <si>
-    <t>10 x 9 x 14 cm</t>
-  </si>
-  <si>
-    <t>4.73 x 3.35 inches</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>80 h 115 w 90 d mm</t>
-  </si>
-  <si>
-    <t>Silver</t>
-  </si>
-  <si>
-    <t>Marauder's Map Mug</t>
-  </si>
-  <si>
-    <t>12.5 (w) x 10 (h) x 9.5 (d) cm;9.5 x 12.5 x 10 cm</t>
-  </si>
-  <si>
-    <t>Multicolored</t>
-  </si>
-  <si>
-    <t>12.5 x 9 x 10.5 cm</t>
-  </si>
-  <si>
-    <t>Plastic;thermoplastic rubber (TPR);polypropylene (PP)</t>
-  </si>
-  <si>
-    <t>9.5 x 8.2 x 18.5 cm</t>
-  </si>
-  <si>
-    <t>Multi-Color</t>
-  </si>
-  <si>
-    <t>Bone China</t>
-  </si>
-  <si>
-    <t>H8 x W8.5 x D8.5cm</t>
-  </si>
-  <si>
-    <t>11 x 8 x 10 centimetres;11 x 8 x 10 cm;11x8x10cm</t>
-  </si>
-  <si>
-    <t>Multi</t>
-  </si>
-  <si>
     <t>Cymax 250 ml Cat Glass Cup Tea Mug with Fish Tea Infuser Strainer Filter, Perfect Christmas Birthday Gift for Cat Lovers
 Material	Glass
 Brand	Cymax
@@ -3039,106 +2667,10 @@
 Item Weight	360 g</t>
   </si>
   <si>
-    <t>Glass;borosilicate glass</t>
-  </si>
-  <si>
-    <t>11.9cm*12.5cm</t>
-  </si>
-  <si>
-    <t>top diameter 8cm x 9.5cm height</t>
-  </si>
-  <si>
-    <t>height: 4.65in, upper (opening) diameter: 3.22in, bottom diameter: 3.62in</t>
-  </si>
-  <si>
-    <t>Matte White</t>
-  </si>
-  <si>
-    <t>9 x 9 x 12 centimetres;9 x 9 x 12 cm</t>
-  </si>
-  <si>
-    <t>12.5 (w) x 15.5 (h) x 8.5 (d) cm;11.99 x 13 x 10.01 cm</t>
-  </si>
-  <si>
-    <t>14 x 9 x 10 cm</t>
-  </si>
-  <si>
-    <t>Red</t>
-  </si>
-  <si>
-    <t>16.21 x 12.8 x 10.8 cm</t>
-  </si>
-  <si>
-    <t>Cream;Gold</t>
-  </si>
-  <si>
-    <t>8 x 8 x 10 cm</t>
-  </si>
-  <si>
-    <t>Bigdream# 540</t>
-  </si>
-  <si>
-    <t>8.5 x 12 x 10 cm</t>
-  </si>
-  <si>
-    <t>19 x 12 x 8 cm</t>
-  </si>
-  <si>
-    <t>Multi-coloured</t>
-  </si>
-  <si>
-    <t>10 (h) x 11.5 (w) x 9 (d) cm;10 x 11.5 x 9 cm</t>
-  </si>
-  <si>
-    <t>White;Off White</t>
-  </si>
-  <si>
-    <t>140 x 110 x 100 centimetres;140 x 110 x 100 cm</t>
-  </si>
-  <si>
-    <t>13x10x9cm;13 x 9 x 10cm</t>
-  </si>
-  <si>
-    <t>Cream</t>
-  </si>
-  <si>
-    <t>fine china</t>
-  </si>
-  <si>
     <t>295ml</t>
   </si>
   <si>
-    <t>9.5 x 11.5 centimetres</t>
-  </si>
-  <si>
-    <t>9.5 x 8.2 x 8.2 cm</t>
-  </si>
-  <si>
-    <t>7.9 x 11 x 9.3 centimetres;7.9 x 11 x 9.3 cm</t>
-  </si>
-  <si>
-    <t>14.5 (h) x 14.5 (w) x 14.5 (d)cm;14 x 11 x 10 cm</t>
-  </si>
-  <si>
-    <t>Enamel</t>
-  </si>
-  <si>
-    <t>13x9.5x8.5 cm;8.48 x 9.5 x 12.5 cm</t>
-  </si>
-  <si>
-    <t>Cream;Black</t>
-  </si>
-  <si>
     <t>400ml</t>
-  </si>
-  <si>
-    <t>Iridescent</t>
-  </si>
-  <si>
-    <t>13 x 9.7 x 8.4 cm</t>
-  </si>
-  <si>
-    <t>29.5 x 29.5 x 8.5 centimetres;29.5 x 29.5 x 8.5 cm</t>
   </si>
   <si>
     <t>16 oz Matte Texture Coffee Mug, Smilatte M052 Novelty Ceramic Cup for Latte Cappuccino Tea Hot Cocoa, Black
@@ -3162,9 +2694,6 @@
 Item Weight	360 g</t>
   </si>
   <si>
-    <t>8.4 x 8.4 x 11.4 centimetres;8.38 x 8.38 x 11.43 cm</t>
-  </si>
-  <si>
     <t>KitchenCraft Painted Ceramic Novelty Pug Mug, 350 ml (12.5 fl oz) - Cream / Brown
 Material	Ceramic
 Colour	Cream/Brown
@@ -3180,84 +2709,6 @@
 Item volume	350 Millilitres
 Number of pieces	1
 Batteries required	No</t>
-  </si>
-  <si>
-    <t>Cream;Brown</t>
-  </si>
-  <si>
-    <t>11 x 15 x 9.5 centimetres;11 x 15 x 9.5 cm</t>
-  </si>
-  <si>
-    <t>11cmx12. 7cmx9. 2cm;8.99 x 8.74 x 12.6 cm</t>
-  </si>
-  <si>
-    <t>Multicolor</t>
-  </si>
-  <si>
-    <t>12.5 x 11 x 7.5 centimetres;12.5 x 11 x 7.49 cm</t>
-  </si>
-  <si>
-    <t>Red;Translucent Red</t>
-  </si>
-  <si>
-    <t>12 x 8.5 x 17.5 cm</t>
-  </si>
-  <si>
-    <t>12.6 x 9.3 x 10.5 cm</t>
-  </si>
-  <si>
-    <t>17.6 x 13.79 x 13.41 cm</t>
-  </si>
-  <si>
-    <t>16 x 11 x 12 centimetres;16 x 11 x 12 cm</t>
-  </si>
-  <si>
-    <t>White;5</t>
-  </si>
-  <si>
-    <t>Orange-red</t>
-  </si>
-  <si>
-    <t>21 x 10.5 x 10.5 centimetres;21 x 10.5 x 10.5 cm</t>
-  </si>
-  <si>
-    <t>Bamboo</t>
-  </si>
-  <si>
-    <t>Polynesia</t>
-  </si>
-  <si>
-    <t>10 x 10 x 18 cm</t>
-  </si>
-  <si>
-    <t>8 x 8 x 10 centimetres;8 x 8 x 10 cm</t>
-  </si>
-  <si>
-    <t>Height approx 9.4cm Diameter approx 8cm</t>
-  </si>
-  <si>
-    <t>H: 9 x W: 12 (inc handle) cm, 8.5cm Diameter</t>
-  </si>
-  <si>
-    <t>fine china;Bone China</t>
-  </si>
-  <si>
-    <t>Dolomite</t>
-  </si>
-  <si>
-    <t>Aladdin (Genie)</t>
-  </si>
-  <si>
-    <t>17.5 x 11 x 11 cm</t>
-  </si>
-  <si>
-    <t>Grey;Green;Gunmetal Green</t>
-  </si>
-  <si>
-    <t>8.5 x 11.5 x 10.5 centimetres;8.5 x 11.5 x 10.5 cm</t>
-  </si>
-  <si>
-    <t>L14 x W0.5 x H10.8 cm;10.3 x 11.8 x 10.2 cm</t>
   </si>
   <si>
     <t>Coffee Mug with Cute Soft Silicone Cat Lid Kneadable and Squeezable Creative Gifts Suitable for Office and Home Decompression Mug/Cup 350ML/12 OZ Black
@@ -3278,36 +2729,6 @@
 Item Weight	590 g</t>
   </si>
   <si>
-    <t>Height 9.5cm Width 17cm Depth 12.5cm</t>
-  </si>
-  <si>
-    <t>12 x 10.5 x 8.8 centimetres;11.99 x 10.49 x 8.79 cm</t>
-  </si>
-  <si>
-    <t>Black With Grip</t>
-  </si>
-  <si>
-    <t>9 x 9 x 15 centimetres;9 x 9 x 15 cm</t>
-  </si>
-  <si>
-    <t>10 x 15 x 11 centimetres;10 x 15 x 11 cm</t>
-  </si>
-  <si>
-    <t>Blue and Black</t>
-  </si>
-  <si>
-    <t>15 x 10 x 9 centimetres;15 x 10 x 9 cm</t>
-  </si>
-  <si>
-    <t>Recycled Coffee Cups</t>
-  </si>
-  <si>
-    <t>Black &amp; Electric Mustard</t>
-  </si>
-  <si>
-    <t>Ceramic;Dolomite</t>
-  </si>
-  <si>
     <t>glass</t>
   </si>
   <si>
@@ -3573,12 +2994,6 @@
   </si>
   <si>
     <t>other</t>
-  </si>
-  <si>
-    <t>All_Material</t>
-  </si>
-  <si>
-    <t>All_Colour</t>
   </si>
   <si>
     <t>12oz</t>
@@ -4138,3637 +3553,2587 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H151"/>
+  <dimension ref="A1:F151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="C152" sqref="C152"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="49.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="28" style="1" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="41.1640625" customWidth="1"/>
-    <col min="6" max="6" width="37.1640625" customWidth="1"/>
-    <col min="7" max="7" width="28.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="29.5" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="41.1640625" customWidth="1"/>
+    <col min="3" max="3" width="37.1640625" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="365" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" ht="365" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>368</v>
+        <v>246</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>443</v>
+        <v>162</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>369</v>
+        <v>147</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>370</v>
+        <v>159</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>443</v>
+        <v>164</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>371</v>
+        <v>159</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>440</v>
+        <v>165</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="380" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="380" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>372</v>
+        <v>247</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>444</v>
+        <v>162</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>373</v>
+        <v>247</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>464</v>
+        <v>247</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="320" x14ac:dyDescent="0.2">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="320" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>374</v>
+        <v>147</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="192" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="192" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>375</v>
+        <v>147</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>376</v>
+        <v>147</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>465</v>
+        <v>165</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="395" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="395" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>377</v>
+        <v>247</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>444</v>
+        <v>164</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>378</v>
+        <v>147</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>445</v>
+        <v>163</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>466</v>
+      <c r="B13" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="224" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="224" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>374</v>
+        <v>147</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>440</v>
+        <v>247</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="335" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="335" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>380</v>
+        <v>160</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>440</v>
+        <v>166</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="395" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="395" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>381</v>
+        <v>147</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>443</v>
+        <v>247</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>374</v>
+        <v>147</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>447</v>
+        <v>247</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="320" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="320" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>382</v>
+        <v>246</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>448</v>
+        <v>247</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="320" x14ac:dyDescent="0.2">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="320" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>383</v>
+        <v>247</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>444</v>
+        <v>247</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>384</v>
+        <v>160</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>467</v>
+        <v>162</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="304" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="304" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>374</v>
+        <v>147</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>449</v>
+        <v>163</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="380" x14ac:dyDescent="0.2">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="380" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>385</v>
+        <v>147</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>468</v>
+        <v>167</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="335" x14ac:dyDescent="0.2">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="335" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>386</v>
+        <v>247</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>450</v>
+        <v>162</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>387</v>
+        <v>159</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>451</v>
+        <v>168</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>157</v>
+        <v>194</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="395" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="395" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>388</v>
+        <v>247</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>452</v>
+        <v>169</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>163</v>
+        <v>195</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>389</v>
+        <v>160</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>467</v>
+        <v>164</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>204</v>
+        <v>246</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>453</v>
+        <v>164</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>205</v>
+        <v>146</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>204</v>
+        <v>147</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>440</v>
+        <v>247</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>207</v>
+        <v>146</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="272" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="272" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>390</v>
+        <v>247</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>440</v>
+        <v>247</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="350" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="350" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>369</v>
+        <v>247</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>469</v>
+        <v>247</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>210</v>
+        <v>176</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="144" x14ac:dyDescent="0.2">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="144" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>384</v>
+        <v>247</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>440</v>
+        <v>247</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="320" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="320" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>391</v>
+        <v>147</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>454</v>
+        <v>162</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>168</v>
+        <v>198</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="272" x14ac:dyDescent="0.2">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="272" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>381</v>
+        <v>147</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>150</v>
+        <v>247</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="256" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="256" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>392</v>
+        <v>147</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>440</v>
+        <v>247</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>168</v>
+        <v>199</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="320" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="320" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>393</v>
+        <v>147</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>467</v>
+        <v>247</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>216</v>
+        <v>148</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>218</v>
+        <v>147</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>470</v>
+        <v>170</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>370</v>
+        <v>159</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>470</v>
+        <v>171</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>220</v>
+        <v>177</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>221</v>
+        <v>150</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>391</v>
+        <v>247</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>308</v>
+        <v>164</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>377</v>
+        <v>147</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>471</v>
+        <v>167</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>224</v>
+        <v>184</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>204</v>
+        <v>246</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>456</v>
+        <v>247</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>228</v>
+        <v>146</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>394</v>
+        <v>147</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>472</v>
+        <v>168</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>168</v>
+        <v>201</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="365" x14ac:dyDescent="0.2">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="365" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>395</v>
+        <v>147</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>455</v>
+        <v>162</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>168</v>
+        <v>202</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="288" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="288" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>396</v>
+        <v>160</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>444</v>
+        <v>162</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>233</v>
+        <v>203</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="350" x14ac:dyDescent="0.2">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="350" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>368</v>
+        <v>161</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>446</v>
+        <v>247</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>234</v>
+        <v>175</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>397</v>
+        <v>246</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>473</v>
+        <v>162</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="272" x14ac:dyDescent="0.2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="272" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>369</v>
+        <v>247</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>474</v>
+        <v>247</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>373</v>
+        <v>147</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>447</v>
+        <v>247</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="365" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="365" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>388</v>
+        <v>247</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>308</v>
+        <v>163</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>163</v>
+        <v>195</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="240" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="240" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>398</v>
+        <v>160</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>458</v>
+        <v>247</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>178</v>
+        <v>205</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="240" x14ac:dyDescent="0.2">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="240" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>399</v>
+        <v>247</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>440</v>
+        <v>162</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>206</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="304" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="304" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>400</v>
+        <v>247</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>308</v>
+        <v>163</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>207</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>381</v>
+        <v>147</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>475</v>
+        <v>167</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>401</v>
+        <v>147</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>476</v>
+        <v>172</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>168</v>
+        <v>208</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="365" x14ac:dyDescent="0.2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="365" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>395</v>
+        <v>147</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>459</v>
+        <v>168</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>168</v>
+        <v>202</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="350" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="350" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>373</v>
+        <v>147</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>440</v>
+        <v>167</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>204</v>
+        <v>247</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>308</v>
+        <v>247</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>385</v>
+        <v>247</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>477</v>
+        <v>163</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>163</v>
+        <v>192</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="224" x14ac:dyDescent="0.2">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="224" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>370</v>
+        <v>147</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>478</v>
+        <v>163</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="272" x14ac:dyDescent="0.2">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="272" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>395</v>
+        <v>147</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>455</v>
+        <v>164</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>168</v>
+        <v>202</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>384</v>
+        <v>246</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>479</v>
+        <v>162</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>228</v>
+        <v>191</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>250</v>
+        <v>151</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>480</v>
+        <v>247</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>251</v>
+        <v>149</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="335" x14ac:dyDescent="0.2">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="335" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>402</v>
+        <v>147</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>389</v>
+        <v>246</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>444</v>
+        <v>247</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>253</v>
+        <v>196</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="350" x14ac:dyDescent="0.2">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="350" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>254</v>
+        <v>152</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>403</v>
+        <v>159</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>481</v>
+        <v>162</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>255</v>
+        <v>210</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>404</v>
+        <v>161</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>460</v>
+        <v>162</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="320" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="320" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>405</v>
+        <v>147</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>476</v>
+        <v>247</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>168</v>
+        <v>212</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>406</v>
+        <v>247</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>448</v>
+        <v>247</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>259</v>
+        <v>213</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>407</v>
+        <v>147</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>479</v>
+        <v>167</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>168</v>
+        <v>214</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="240" x14ac:dyDescent="0.2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="240" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>408</v>
+        <v>147</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>448</v>
+        <v>247</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>168</v>
+        <v>215</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="192" x14ac:dyDescent="0.2">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="192" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>409</v>
+        <v>147</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>440</v>
+        <v>247</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>168</v>
+        <v>216</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>389</v>
+        <v>246</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>478</v>
+        <v>173</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="304" x14ac:dyDescent="0.2">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="304" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>410</v>
+        <v>147</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>308</v>
+        <v>247</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>168</v>
+        <v>217</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="288" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="288" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>411</v>
+        <v>247</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>474</v>
+        <v>247</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>163</v>
+        <v>218</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>412</v>
+        <v>247</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>308</v>
+        <v>166</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="380" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="380" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>375</v>
+        <v>160</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>481</v>
+        <v>162</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>270</v>
+        <v>182</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="192" x14ac:dyDescent="0.2">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="192" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>378</v>
+        <v>247</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>461</v>
+        <v>247</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>273</v>
+        <v>185</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="304" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="304" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>397</v>
+        <v>247</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>440</v>
+        <v>247</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>277</v>
+        <v>153</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>393</v>
+        <v>159</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>462</v>
+        <v>247</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>278</v>
+        <v>200</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="208" x14ac:dyDescent="0.2">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="208" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>378</v>
+        <v>247</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>150</v>
+        <v>247</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>369</v>
+        <v>246</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>482</v>
+        <v>247</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>251</v>
+        <v>176</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="240" x14ac:dyDescent="0.2">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="240" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>395</v>
+        <v>247</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>457</v>
+        <v>247</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>163</v>
+        <v>202</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="304" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="304" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>369</v>
+        <v>147</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>463</v>
+        <v>163</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="256" x14ac:dyDescent="0.2">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="256" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>413</v>
+        <v>247</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>483</v>
+        <v>163</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>163</v>
+        <v>220</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="240" x14ac:dyDescent="0.2">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="240" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>414</v>
+        <v>147</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>445</v>
+        <v>247</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="272" x14ac:dyDescent="0.2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="272" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>414</v>
+        <v>147</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>455</v>
+        <v>162</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>415</v>
+        <v>147</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>445</v>
+        <v>164</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>168</v>
+        <v>222</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>378</v>
+        <v>247</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>440</v>
+        <v>247</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="320" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="320" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>374</v>
+        <v>147</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="256" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="256" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>373</v>
+        <v>147</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>462</v>
+        <v>247</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="320" x14ac:dyDescent="0.2">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="320" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>409</v>
+        <v>247</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>308</v>
+        <v>174</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>163</v>
+        <v>216</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>416</v>
+        <v>147</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>444</v>
+        <v>247</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>168</v>
+        <v>223</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="H91" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="304" x14ac:dyDescent="0.2">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="304" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>414</v>
+        <v>147</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>484</v>
+        <v>163</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="224" x14ac:dyDescent="0.2">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="224" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>204</v>
+        <v>147</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>447</v>
+        <v>247</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="H93" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" ht="320" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="320" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>417</v>
+        <v>247</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>422</v>
+        <v>247</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="H94" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="335" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="335" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>373</v>
+        <v>247</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>447</v>
+        <v>247</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>180</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="H95" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>374</v>
+        <v>147</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>445</v>
+        <v>163</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="H96" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" ht="240" x14ac:dyDescent="0.2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="240" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>374</v>
+        <v>247</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>440</v>
+        <v>174</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>299</v>
+        <v>181</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="H97" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="380" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="380" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>377</v>
+        <v>247</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>300</v>
+        <v>247</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" ht="240" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="240" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>418</v>
+        <v>147</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>474</v>
+        <v>247</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>168</v>
+        <v>225</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="H99" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" ht="304" x14ac:dyDescent="0.2">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="304" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>370</v>
+        <v>147</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>485</v>
+        <v>163</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="G100" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="304" x14ac:dyDescent="0.2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="304" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>419</v>
+        <v>247</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>451</v>
+        <v>247</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>163</v>
+        <v>226</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="H101" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" ht="335" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="335" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>395</v>
+        <v>147</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>448</v>
+        <v>171</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>168</v>
+        <v>202</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="H102" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" ht="320" x14ac:dyDescent="0.2">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="320" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>420</v>
+        <v>247</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>455</v>
+        <v>247</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>305</v>
+        <v>227</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="H103" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" ht="320" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="320" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>374</v>
+        <v>147</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>486</v>
+        <v>247</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" ht="288" x14ac:dyDescent="0.2">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="288" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>388</v>
+        <v>247</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>308</v>
+        <v>174</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="G105" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>421</v>
+        <v>246</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>487</v>
+        <v>247</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>228</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="G106" s="1" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" ht="350" x14ac:dyDescent="0.2">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="350" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>375</v>
+        <v>147</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>467</v>
+        <v>166</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="G107" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="H107" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>388</v>
+        <v>147</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>488</v>
+        <v>247</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="H108" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" ht="240" x14ac:dyDescent="0.2">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="240" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>381</v>
+        <v>147</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>150</v>
+        <v>247</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>215</v>
+        <v>188</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" ht="335" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="335" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>312</v>
+        <v>156</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>399</v>
+        <v>147</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>489</v>
+        <v>162</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>168</v>
+        <v>206</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="G110" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="H110" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" ht="380" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="380" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>314</v>
+        <v>157</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>370</v>
+        <v>147</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>490</v>
+        <v>174</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="H111" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" ht="256" x14ac:dyDescent="0.2">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="256" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>422</v>
+        <v>147</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>485</v>
+        <v>247</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>168</v>
+        <v>229</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" ht="320" x14ac:dyDescent="0.2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="320" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>423</v>
+        <v>247</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>440</v>
+        <v>247</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>163</v>
+        <v>230</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="G113" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="H113" s="1" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" ht="240" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="240" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>408</v>
+        <v>147</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>448</v>
+        <v>247</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>168</v>
+        <v>215</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="G114" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" ht="176" x14ac:dyDescent="0.2">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="176" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>424</v>
+        <v>247</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>150</v>
+        <v>247</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>231</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" ht="192" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="192" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>390</v>
+        <v>247</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>440</v>
+        <v>247</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>273</v>
+        <v>197</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="H116" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" ht="304" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="304" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>425</v>
+        <v>160</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>491</v>
+        <v>165</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>178</v>
+        <v>232</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="F117" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="G117" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="H117" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" ht="335" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="335" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>415</v>
+        <v>247</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>479</v>
+        <v>163</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>163</v>
+        <v>222</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="F118" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="G118" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="H118" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>374</v>
+        <v>147</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>440</v>
+        <v>247</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F119" s="1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" ht="335" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="335" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>426</v>
+        <v>247</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>150</v>
+        <v>247</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>273</v>
+        <v>233</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="F120" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="G120" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="H120" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>372</v>
+        <v>147</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>492</v>
+        <v>163</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="G121" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="H121" s="1" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>373</v>
+        <v>246</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>493</v>
+        <v>172</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>228</v>
+        <v>180</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="G122" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="H122" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>384</v>
+        <v>247</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>494</v>
+        <v>247</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>328</v>
+        <v>191</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="G123" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="H123" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" ht="208" x14ac:dyDescent="0.2">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="208" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>390</v>
+        <v>247</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>443</v>
+        <v>164</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="G124" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>374</v>
+        <v>246</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>448</v>
+        <v>167</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>228</v>
+        <v>181</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="F125" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="G125" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" ht="208" x14ac:dyDescent="0.2">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="208" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>419</v>
+        <v>147</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>168</v>
+        <v>226</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="G126" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>416</v>
+        <v>147</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>444</v>
+        <v>247</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>168</v>
+        <v>223</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F127" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="H127" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" ht="224" x14ac:dyDescent="0.2">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="224" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>383</v>
+        <v>247</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>440</v>
+        <v>247</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>190</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="F128" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="H128" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" ht="240" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="240" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>381</v>
+        <v>147</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>150</v>
+        <v>247</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" ht="208" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="208" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>204</v>
+        <v>247</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>440</v>
+        <v>247</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>334</v>
+        <v>146</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="F130" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="H130" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>427</v>
+        <v>247</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>440</v>
+        <v>168</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>335</v>
+        <v>234</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="F131" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="G131" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" ht="256" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="256" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>395</v>
+        <v>147</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>308</v>
+        <v>247</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>168</v>
+        <v>202</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F132" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="G132" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="H132" s="1" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>374</v>
+        <v>147</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>454</v>
+        <v>166</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F133" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="G133" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" ht="320" x14ac:dyDescent="0.2">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="320" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>428</v>
+        <v>160</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>308</v>
+        <v>171</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="F134" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="G134" s="1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" ht="176" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="176" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>397</v>
+        <v>247</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>495</v>
+        <v>247</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>273</v>
+        <v>204</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" ht="224" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="224" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>374</v>
+        <v>147</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>440</v>
+        <v>163</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F136" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="G136" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="H136" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>429</v>
+        <v>247</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>440</v>
+        <v>247</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>236</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="F137" s="1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" ht="256" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="256" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>430</v>
+        <v>147</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>453</v>
+        <v>164</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>168</v>
+        <v>237</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F138" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="G138" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="H138" s="1" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" ht="176" x14ac:dyDescent="0.2">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="176" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>369</v>
+        <v>247</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>486</v>
+        <v>247</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>176</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="F139" s="1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" ht="192" x14ac:dyDescent="0.2">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="192" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>374</v>
+        <v>147</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>440</v>
+        <v>163</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F140" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="G140" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>431</v>
+        <v>159</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>444</v>
+        <v>165</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="F141" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="G141" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>341</v>
+        <v>158</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>432</v>
+        <v>147</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>467</v>
+        <v>162</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>168</v>
+        <v>239</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F142" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="G142" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" ht="240" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="240" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>433</v>
+        <v>147</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>440</v>
+        <v>247</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>168</v>
+        <v>240</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F143" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="G143" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="H143" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" ht="320" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="320" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>434</v>
+        <v>147</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>150</v>
+        <v>247</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>168</v>
+        <v>241</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F144" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="H144" s="1" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>435</v>
+        <v>246</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>496</v>
+        <v>162</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="F145" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="G145" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="H145" s="1" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" ht="208" x14ac:dyDescent="0.2">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="208" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>436</v>
+        <v>147</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>497</v>
+        <v>247</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>168</v>
+        <v>243</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F146" s="1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>437</v>
+        <v>147</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>498</v>
+        <v>164</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>168</v>
+        <v>244</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F147" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="G147" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="H147" s="1" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" ht="304" x14ac:dyDescent="0.2">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="304" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>397</v>
+        <v>161</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>447</v>
+        <v>247</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>234</v>
+        <v>204</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="F148" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="G148" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="H148" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>438</v>
+        <v>247</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>499</v>
+        <v>162</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>349</v>
+        <v>245</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="F149" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="G149" s="1" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>409</v>
+        <v>247</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>444</v>
+        <v>247</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>351</v>
+        <v>216</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="F150" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="H150" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>388</v>
+        <v>246</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>467</v>
+        <v>247</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>228</v>
+        <v>195</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="F151" s="1" t="s">
-        <v>440</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>

--- a/spreadsheet/web_scrape_mug.xlsx
+++ b/spreadsheet/web_scrape_mug.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/williamlam/Desktop/FYP/ObjectPropertiesInformationExtraction/spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650085BF-01B3-8F43-A8AA-EA1498A2E826}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11322836-BD88-7949-88B9-F0430262CDAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="500" windowWidth="35920" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="431">
   <si>
     <t xml:space="preserve">Hydro Flask 12oz Mug ONE BLACK
 Material Stainless Steel
@@ -1755,27 +1755,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Paladone Story Slinky Dog Coffee Mug - Officially Licensed Disney Merchandise, PP4808TS
-Material Ceramic
-Colour White/Off White
-Brand Paladone
-Capacity 330 Millilitres
-Item Dimensions  L x W x H 140 x 110 x 100 centimetres
-SLINKY MUG: This standard sized drinking mug features Toy Story’s Slink with his elongated body stretched around the entire mug along with the words ‘Slinky Dog’ inside the mug.
-HOT ITEM: Whether you’re a coffee lover, tea fan, or hot chocolate connoisseur, this mug is for you. Made with durable material and a cool design, it will brighten your day at home or the office.
-YOU’VE GOT A FRIEND IN ME: Toy Story is an enduring series that’s loved by kids &amp; adults alike. The movies are classics that have made characters like Woody, Buzz, Jessie, &amp; Bo Peep household names.
-OFFICIALLY LICENSED: This quality collectible is a unique addition to any fan's set. Give this cool collector's merchandise to mums, dads, fans, grads, kids, guys, and gals who love pop culture fun!
-NOVEL AND ORIGINAL: For those in the fandom looking for novelty items and all things geek, crazy, and unique, Paladone is your best source for top-selling toys, mugs, collectibles, and novelties.
-Brand Paladone
-Model Number PP4808TS
-Colour White/Off White
-Product Dimensions 140 x 110 x 100 cm; 380 Grams
-Capacity 330 Millilitres
-Material Ceramic
-Item Weight 380 g
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Boxed Life Behind Bars Cycling Fine China Mug 13x10x9cm
 The perfect gift for any cycling enthusiast
 Plain white mug with a fantastic 'Life behind bars is better than a day at work' illustration
@@ -3329,9 +3308,6 @@
     <t>8.5</t>
   </si>
   <si>
-    <t>140</t>
-  </si>
-  <si>
     <t>11.1</t>
   </si>
   <si>
@@ -3452,9 +3428,6 @@
     <t>16.4</t>
   </si>
   <si>
-    <t>110</t>
-  </si>
-  <si>
     <t>10.7</t>
   </si>
   <si>
@@ -3519,9 +3492,6 @@
   </si>
   <si>
     <t>8.6</t>
-  </si>
-  <si>
-    <t>100</t>
   </si>
   <si>
     <t>10.1</t>
@@ -3937,10 +3907,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H151"/>
+  <dimension ref="A1:H150"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
-      <selection activeCell="I150" sqref="I150"/>
+      <selection activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3957,28 +3927,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>430</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="335" x14ac:dyDescent="0.2">
@@ -3986,25 +3956,25 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="304" x14ac:dyDescent="0.2">
@@ -4012,25 +3982,25 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="350" x14ac:dyDescent="0.2">
@@ -4038,25 +4008,25 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="335" x14ac:dyDescent="0.2">
@@ -4064,25 +4034,25 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="272" x14ac:dyDescent="0.2">
@@ -4090,25 +4060,25 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="304" x14ac:dyDescent="0.2">
@@ -4116,25 +4086,25 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="288" x14ac:dyDescent="0.2">
@@ -4142,25 +4112,25 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="176" x14ac:dyDescent="0.2">
@@ -4168,25 +4138,25 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="350" x14ac:dyDescent="0.2">
@@ -4194,25 +4164,25 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="288" x14ac:dyDescent="0.2">
@@ -4220,25 +4190,25 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="320" x14ac:dyDescent="0.2">
@@ -4246,25 +4216,25 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="395" x14ac:dyDescent="0.2">
@@ -4272,25 +4242,25 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="224" x14ac:dyDescent="0.2">
@@ -4298,25 +4268,25 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F14" s="2">
         <v>14.7</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="288" x14ac:dyDescent="0.2">
@@ -4324,25 +4294,25 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="304" x14ac:dyDescent="0.2">
@@ -4350,25 +4320,25 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="395" x14ac:dyDescent="0.2">
@@ -4376,25 +4346,25 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="320" x14ac:dyDescent="0.2">
@@ -4402,25 +4372,25 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="192" x14ac:dyDescent="0.2">
@@ -4428,25 +4398,25 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="320" x14ac:dyDescent="0.2">
@@ -4454,25 +4424,25 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="288" x14ac:dyDescent="0.2">
@@ -4480,25 +4450,25 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="304" x14ac:dyDescent="0.2">
@@ -4506,25 +4476,25 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="304" x14ac:dyDescent="0.2">
@@ -4532,25 +4502,25 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="320" x14ac:dyDescent="0.2">
@@ -4558,25 +4528,25 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="288" x14ac:dyDescent="0.2">
@@ -4584,25 +4554,25 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="335" x14ac:dyDescent="0.2">
@@ -4610,25 +4580,25 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="350" x14ac:dyDescent="0.2">
@@ -4636,25 +4606,25 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="335" x14ac:dyDescent="0.2">
@@ -4662,25 +4632,25 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="224" x14ac:dyDescent="0.2">
@@ -4688,25 +4658,25 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="256" x14ac:dyDescent="0.2">
@@ -4714,25 +4684,25 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="144" x14ac:dyDescent="0.2">
@@ -4740,25 +4710,25 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="240" x14ac:dyDescent="0.2">
@@ -4766,25 +4736,25 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="224" x14ac:dyDescent="0.2">
@@ -4792,25 +4762,25 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="256" x14ac:dyDescent="0.2">
@@ -4818,25 +4788,25 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="192" x14ac:dyDescent="0.2">
@@ -4844,25 +4814,25 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="350" x14ac:dyDescent="0.2">
@@ -4870,25 +4840,25 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="365" x14ac:dyDescent="0.2">
@@ -4896,25 +4866,25 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="272" x14ac:dyDescent="0.2">
@@ -4922,25 +4892,25 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="350" x14ac:dyDescent="0.2">
@@ -4948,25 +4918,25 @@
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
@@ -4974,25 +4944,25 @@
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="380" x14ac:dyDescent="0.2">
@@ -5000,25 +4970,25 @@
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="335" x14ac:dyDescent="0.2">
@@ -5026,25 +4996,25 @@
         <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="272" x14ac:dyDescent="0.2">
@@ -5052,25 +5022,25 @@
         <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F43" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="H43" s="2" t="s">
         <v>302</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="256" x14ac:dyDescent="0.2">
@@ -5078,25 +5048,25 @@
         <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="350" x14ac:dyDescent="0.2">
@@ -5104,25 +5074,25 @@
         <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="272" x14ac:dyDescent="0.2">
@@ -5130,25 +5100,25 @@
         <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="395" x14ac:dyDescent="0.2">
@@ -5156,25 +5126,25 @@
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="365" x14ac:dyDescent="0.2">
@@ -5182,25 +5152,25 @@
         <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="240" x14ac:dyDescent="0.2">
@@ -5208,25 +5178,25 @@
         <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="240" x14ac:dyDescent="0.2">
@@ -5234,25 +5204,25 @@
         <v>48</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="240" x14ac:dyDescent="0.2">
@@ -5260,25 +5230,25 @@
         <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="350" x14ac:dyDescent="0.2">
@@ -5286,25 +5256,25 @@
         <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="335" x14ac:dyDescent="0.2">
@@ -5312,25 +5282,25 @@
         <v>51</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="335" x14ac:dyDescent="0.2">
@@ -5338,25 +5308,25 @@
         <v>52</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="256" x14ac:dyDescent="0.2">
@@ -5364,25 +5334,25 @@
         <v>53</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="288" x14ac:dyDescent="0.2">
@@ -5390,25 +5360,25 @@
         <v>54</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="304" x14ac:dyDescent="0.2">
@@ -5416,25 +5386,25 @@
         <v>55</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="208" x14ac:dyDescent="0.2">
@@ -5442,25 +5412,25 @@
         <v>56</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="240" x14ac:dyDescent="0.2">
@@ -5468,25 +5438,25 @@
         <v>57</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
@@ -5494,25 +5464,25 @@
         <v>58</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="288" x14ac:dyDescent="0.2">
@@ -5520,25 +5490,25 @@
         <v>59</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="240" x14ac:dyDescent="0.2">
@@ -5546,25 +5516,25 @@
         <v>60</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="365" x14ac:dyDescent="0.2">
@@ -5572,25 +5542,25 @@
         <v>61</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="320" x14ac:dyDescent="0.2">
@@ -5598,25 +5568,25 @@
         <v>62</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="320" x14ac:dyDescent="0.2">
@@ -5624,25 +5594,25 @@
         <v>63</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="D65" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="256" x14ac:dyDescent="0.2">
@@ -5650,25 +5620,25 @@
         <v>64</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="365" x14ac:dyDescent="0.2">
@@ -5676,25 +5646,25 @@
         <v>65</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F67" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="G67" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="G67" s="2" t="s">
-        <v>302</v>
-      </c>
       <c r="H67" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="304" x14ac:dyDescent="0.2">
@@ -5702,25 +5672,25 @@
         <v>66</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="240" x14ac:dyDescent="0.2">
@@ -5728,25 +5698,25 @@
         <v>67</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="160" x14ac:dyDescent="0.2">
@@ -5754,25 +5724,25 @@
         <v>68</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="350" x14ac:dyDescent="0.2">
@@ -5780,25 +5750,25 @@
         <v>69</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="304" x14ac:dyDescent="0.2">
@@ -5806,25 +5776,25 @@
         <v>70</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="272" x14ac:dyDescent="0.2">
@@ -5832,25 +5802,25 @@
         <v>71</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="288" x14ac:dyDescent="0.2">
@@ -5858,25 +5828,25 @@
         <v>72</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="350" x14ac:dyDescent="0.2">
@@ -5884,25 +5854,25 @@
         <v>73</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="176" x14ac:dyDescent="0.2">
@@ -5910,25 +5880,25 @@
         <v>74</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="304" x14ac:dyDescent="0.2">
@@ -5936,25 +5906,25 @@
         <v>75</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="304" x14ac:dyDescent="0.2">
@@ -5962,25 +5932,25 @@
         <v>76</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F78" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="G78" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="G78" s="2" t="s">
-        <v>350</v>
-      </c>
       <c r="H78" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="160" x14ac:dyDescent="0.2">
@@ -5988,25 +5958,25 @@
         <v>77</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="365" x14ac:dyDescent="0.2">
@@ -6014,25 +5984,25 @@
         <v>78</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="240" x14ac:dyDescent="0.2">
@@ -6040,25 +6010,25 @@
         <v>79</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="192" x14ac:dyDescent="0.2">
@@ -6066,25 +6036,25 @@
         <v>80</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="224" x14ac:dyDescent="0.2">
@@ -6092,25 +6062,25 @@
         <v>81</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="208" x14ac:dyDescent="0.2">
@@ -6118,25 +6088,25 @@
         <v>82</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="272" x14ac:dyDescent="0.2">
@@ -6144,25 +6114,25 @@
         <v>83</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="395" x14ac:dyDescent="0.2">
@@ -6170,25 +6140,25 @@
         <v>84</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="80" x14ac:dyDescent="0.2">
@@ -6196,25 +6166,25 @@
         <v>85</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="320" x14ac:dyDescent="0.2">
@@ -6222,25 +6192,25 @@
         <v>86</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="224" x14ac:dyDescent="0.2">
@@ -6248,25 +6218,25 @@
         <v>87</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="304" x14ac:dyDescent="0.2">
@@ -6274,25 +6244,25 @@
         <v>88</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="320" x14ac:dyDescent="0.2">
@@ -6300,25 +6270,25 @@
         <v>89</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="272" x14ac:dyDescent="0.2">
@@ -6326,25 +6296,25 @@
         <v>90</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="224" x14ac:dyDescent="0.2">
@@ -6352,25 +6322,25 @@
         <v>91</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="304" x14ac:dyDescent="0.2">
@@ -6378,25 +6348,25 @@
         <v>92</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="304" x14ac:dyDescent="0.2">
@@ -6404,129 +6374,129 @@
         <v>93</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F95" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="H95" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="G95" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="H95" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="380" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="1:8" ht="208" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>245</v>
+        <v>150</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>359</v>
+        <v>310</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" ht="208" x14ac:dyDescent="0.2">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="272" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>151</v>
+        <v>283</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>311</v>
+        <v>358</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>301</v>
+        <v>398</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="272" x14ac:dyDescent="0.2">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="208" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>401</v>
+        <v>265</v>
+      </c>
+      <c r="F98" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="G98" s="2">
+        <v>11.5</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" ht="208" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="304" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>219</v>
+        <v>168</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="F99" s="2">
-        <v>9.5</v>
-      </c>
-      <c r="G99" s="2">
-        <v>11.5</v>
+        <v>284</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>396</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>151</v>
+        <v>396</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="304" x14ac:dyDescent="0.2">
@@ -6534,25 +6504,25 @@
         <v>98</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>169</v>
+        <v>219</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>285</v>
+        <v>252</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>398</v>
+        <v>307</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="304" x14ac:dyDescent="0.2">
@@ -6560,25 +6530,25 @@
         <v>99</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>397</v>
+        <v>300</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="304" x14ac:dyDescent="0.2">
@@ -6586,106 +6556,106 @@
         <v>100</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>308</v>
+        <v>347</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" ht="304" x14ac:dyDescent="0.2">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="288" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>221</v>
+        <v>172</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>263</v>
+        <v>285</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>348</v>
+        <v>390</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" ht="288" x14ac:dyDescent="0.2">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="272" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>286</v>
+        <v>258</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>325</v>
+        <v>359</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>392</v>
+        <v>324</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" ht="272" x14ac:dyDescent="0.2">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>187</v>
+        <v>221</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>259</v>
+        <v>286</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>361</v>
+        <v>316</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="320" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>104</v>
       </c>
@@ -6693,259 +6663,259 @@
         <v>148</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>222</v>
+        <v>173</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>287</v>
+        <v>248</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>301</v>
+        <v>331</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" ht="320" x14ac:dyDescent="0.2">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="350" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>249</v>
+        <v>287</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>311</v>
+        <v>360</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>332</v>
+        <v>360</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" ht="350" x14ac:dyDescent="0.2">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="192" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>288</v>
+        <v>240</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>362</v>
+        <v>333</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>362</v>
+        <v>381</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" ht="192" x14ac:dyDescent="0.2">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="304" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>241</v>
+        <v>288</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>334</v>
+        <v>361</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>383</v>
+        <v>361</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" ht="304" x14ac:dyDescent="0.2">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="240" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>200</v>
+        <v>168</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>289</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>363</v>
+        <v>307</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>363</v>
+        <v>302</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" ht="240" x14ac:dyDescent="0.2">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="176" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>169</v>
+        <v>222</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>308</v>
+        <v>150</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>303</v>
+        <v>150</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" ht="176" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="288" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>223</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>285</v>
+        <v>150</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>151</v>
+        <v>362</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>151</v>
+        <v>399</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" ht="288" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="240" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="160" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B113" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D113" s="1" t="s">
+      <c r="B114" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D114" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="E113" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="H113" s="2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" ht="240" x14ac:dyDescent="0.2">
-      <c r="A114" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="E114" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>329</v>
+        <v>359</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>329</v>
+        <v>400</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" ht="160" x14ac:dyDescent="0.2">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="192" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>225</v>
+        <v>189</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>241</v>
+        <v>150</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>361</v>
+        <v>304</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>403</v>
+        <v>307</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" ht="192" x14ac:dyDescent="0.2">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="288" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>113</v>
       </c>
@@ -6953,22 +6923,22 @@
         <v>151</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>151</v>
+        <v>290</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>305</v>
+        <v>333</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>308</v>
+        <v>357</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>344</v>
+        <v>367</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="288" x14ac:dyDescent="0.2">
@@ -6976,103 +6946,103 @@
         <v>114</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>358</v>
+        <v>395</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" ht="288" x14ac:dyDescent="0.2">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="272" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>216</v>
+        <v>172</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>273</v>
+        <v>150</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" ht="272" x14ac:dyDescent="0.2">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="304" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>151</v>
+        <v>240</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>312</v>
+        <v>363</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>401</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" ht="304" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>227</v>
+        <v>170</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>241</v>
+        <v>291</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>365</v>
+        <v>328</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>404</v>
+        <v>307</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>425</v>
+        <v>333</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
@@ -7080,10 +7050,10 @@
         <v>118</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>171</v>
@@ -7092,94 +7062,94 @@
         <v>292</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>308</v>
+        <v>402</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="304" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>293</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>335</v>
+        <v>300</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>405</v>
+        <v>300</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" ht="304" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="208" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>294</v>
+        <v>239</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>301</v>
+        <v>329</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>301</v>
+        <v>398</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" ht="208" x14ac:dyDescent="0.2">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="350" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>330</v>
+        <v>364</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>401</v>
+        <v>326</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" ht="350" x14ac:dyDescent="0.2">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="208" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>122</v>
       </c>
@@ -7187,360 +7157,360 @@
         <v>148</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>173</v>
+        <v>219</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>327</v>
+        <v>398</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" ht="208" x14ac:dyDescent="0.2">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="380" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>241</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>367</v>
+        <v>313</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>401</v>
+        <v>313</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" ht="380" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="144" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>217</v>
+        <v>181</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>242</v>
+        <v>150</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" ht="144" x14ac:dyDescent="0.2">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="192" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>151</v>
+        <v>240</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>316</v>
+        <v>333</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>308</v>
+        <v>381</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>308</v>
+        <v>408</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="192" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>241</v>
+        <v>150</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>334</v>
+        <v>366</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>383</v>
+        <v>403</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" ht="192" x14ac:dyDescent="0.2">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="350" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>189</v>
+        <v>227</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>368</v>
+        <v>308</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>406</v>
+        <v>318</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" ht="350" x14ac:dyDescent="0.2">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="256" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>228</v>
+        <v>195</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>151</v>
+        <v>258</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>309</v>
+        <v>367</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" ht="256" x14ac:dyDescent="0.2">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="350" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>369</v>
+        <v>323</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>308</v>
+        <v>384</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" ht="350" x14ac:dyDescent="0.2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="320" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" ht="320" x14ac:dyDescent="0.2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="176" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>259</v>
+        <v>294</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>326</v>
+        <v>355</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>390</v>
+        <v>365</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" ht="176" x14ac:dyDescent="0.2">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="208" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>295</v>
+        <v>150</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>367</v>
+        <v>311</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" ht="208" x14ac:dyDescent="0.2">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>173</v>
+        <v>229</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="256" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>230</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>151</v>
+        <v>254</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>370</v>
+        <v>305</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>301</v>
+        <v>365</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" ht="256" x14ac:dyDescent="0.2">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="176" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>231</v>
+        <v>167</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>306</v>
+        <v>369</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>386</v>
+        <v>337</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="176" x14ac:dyDescent="0.2">
@@ -7548,28 +7518,28 @@
         <v>135</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>286</v>
+        <v>150</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>371</v>
+        <v>150</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>386</v>
+        <v>150</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" ht="176" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>136</v>
       </c>
@@ -7577,129 +7547,129 @@
         <v>149</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>173</v>
+        <v>231</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>151</v>
+        <v>241</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>151</v>
+        <v>370</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>151</v>
+        <v>400</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="335" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>232</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" ht="335" x14ac:dyDescent="0.2">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="224" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>233</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>249</v>
+        <v>150</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" ht="224" x14ac:dyDescent="0.2">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="272" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>234</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>151</v>
+        <v>240</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>374</v>
+        <v>333</v>
       </c>
       <c r="G143" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="H143" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="H143" s="2" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" ht="272" x14ac:dyDescent="0.2">
+    </row>
+    <row r="144" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>235</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>241</v>
+        <v>295</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>334</v>
+        <v>301</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>405</v>
+        <v>301</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="176" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>141</v>
       </c>
@@ -7707,7 +7677,7 @@
         <v>148</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>236</v>
@@ -7716,24 +7686,24 @@
         <v>296</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>302</v>
+        <v>329</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>302</v>
+        <v>398</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" ht="176" x14ac:dyDescent="0.2">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="380" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>237</v>
@@ -7742,143 +7712,117 @@
         <v>297</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>401</v>
+        <v>302</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" ht="380" x14ac:dyDescent="0.2">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="288" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>238</v>
+        <v>197</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>298</v>
+        <v>246</v>
       </c>
       <c r="F147" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="H147" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="G147" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="H147" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" ht="288" x14ac:dyDescent="0.2">
+    </row>
+    <row r="148" spans="1:8" ht="335" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B148" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C148" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C148" s="1" t="s">
-        <v>151</v>
-      </c>
       <c r="D148" s="1" t="s">
-        <v>198</v>
+        <v>238</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>247</v>
+        <v>298</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>303</v>
+        <v>373</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>301</v>
+        <v>357</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" ht="335" x14ac:dyDescent="0.2">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="304" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>239</v>
+        <v>209</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>299</v>
+        <v>241</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" ht="304" x14ac:dyDescent="0.2">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="256" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>362</v>
+        <v>406</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" ht="256" x14ac:dyDescent="0.2">
-      <c r="A151" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E151" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="F151" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="G151" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="H151" s="2" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
   </sheetData>
